--- a/generator/data/business_univariate_stats.xlsx
+++ b/generator/data/business_univariate_stats.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>label_en</t>
+          <t>label__en</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>label_ne</t>
+          <t>label__ne</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -842,7 +842,7 @@
         <v>110</v>
       </c>
       <c r="J10" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -882,7 +882,7 @@
         <v>110</v>
       </c>
       <c r="J11" t="n">
-        <v>113</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -922,7 +922,7 @@
         <v>110</v>
       </c>
       <c r="J12" t="n">
-        <v>112</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -962,7 +962,7 @@
         <v>110</v>
       </c>
       <c r="J13" t="n">
-        <v>111</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -1002,7 +1002,7 @@
         <v>110</v>
       </c>
       <c r="J14" t="n">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -1042,7 +1042,7 @@
         <v>110</v>
       </c>
       <c r="J15" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>110</v>
       </c>
       <c r="J16" t="n">
-        <v>108</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1122,7 +1122,7 @@
         <v>110</v>
       </c>
       <c r="J17" t="n">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1162,7 +1162,7 @@
         <v>110</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1202,7 +1202,7 @@
         <v>110</v>
       </c>
       <c r="J19" t="n">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -1242,7 +1242,7 @@
         <v>110</v>
       </c>
       <c r="J20" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1322,7 +1322,7 @@
         <v>110</v>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1362,7 +1362,7 @@
         <v>110</v>
       </c>
       <c r="J23" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -1402,7 +1402,7 @@
         <v>110</v>
       </c>
       <c r="J24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1442,7 +1442,7 @@
         <v>110</v>
       </c>
       <c r="J25" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1482,7 +1482,7 @@
         <v>110</v>
       </c>
       <c r="J26" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
@@ -1522,7 +1522,7 @@
         <v>110</v>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
@@ -1562,7 +1562,7 @@
         <v>110</v>
       </c>
       <c r="J28" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
@@ -1602,7 +1602,7 @@
         <v>110</v>
       </c>
       <c r="J29" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
@@ -1642,7 +1642,7 @@
         <v>110</v>
       </c>
       <c r="J30" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1682,7 @@
         <v>110</v>
       </c>
       <c r="J31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
@@ -1722,7 +1722,7 @@
         <v>110</v>
       </c>
       <c r="J32" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33">
@@ -1762,7 +1762,7 @@
         <v>110</v>
       </c>
       <c r="J33" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -1802,7 +1802,7 @@
         <v>110</v>
       </c>
       <c r="J34" t="n">
-        <v>137</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -1842,7 +1842,7 @@
         <v>110</v>
       </c>
       <c r="J35" t="n">
-        <v>138</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -1882,7 +1882,7 @@
         <v>110</v>
       </c>
       <c r="J36" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -1922,7 +1922,7 @@
         <v>110</v>
       </c>
       <c r="J37" t="n">
-        <v>141</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -1962,7 +1962,7 @@
         <v>110</v>
       </c>
       <c r="J38" t="n">
-        <v>139</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
@@ -2002,7 +2002,7 @@
         <v>110</v>
       </c>
       <c r="J39" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40">
@@ -2042,7 +2042,7 @@
         <v>110</v>
       </c>
       <c r="J40" t="n">
-        <v>127</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
@@ -2082,7 +2082,7 @@
         <v>110</v>
       </c>
       <c r="J41" t="n">
-        <v>128</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
@@ -2122,7 +2122,7 @@
         <v>110</v>
       </c>
       <c r="J42" t="n">
-        <v>129</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43">
@@ -2162,7 +2162,7 @@
         <v>110</v>
       </c>
       <c r="J43" t="n">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44">
@@ -2202,7 +2202,7 @@
         <v>110</v>
       </c>
       <c r="J44" t="n">
-        <v>130</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45">
@@ -2242,7 +2242,7 @@
         <v>110</v>
       </c>
       <c r="J45" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46">
@@ -2282,7 +2282,7 @@
         <v>110</v>
       </c>
       <c r="J46" t="n">
-        <v>134</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -2322,7 +2322,7 @@
         <v>110</v>
       </c>
       <c r="J47" t="n">
-        <v>135</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48">
@@ -2362,7 +2362,7 @@
         <v>110</v>
       </c>
       <c r="J48" t="n">
-        <v>136</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49">
@@ -2402,7 +2402,7 @@
         <v>110</v>
       </c>
       <c r="J49" t="n">
-        <v>132</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
@@ -2442,7 +2442,7 @@
         <v>110</v>
       </c>
       <c r="J50" t="n">
-        <v>152</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -2482,7 +2482,7 @@
         <v>110</v>
       </c>
       <c r="J51" t="n">
-        <v>151</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -2522,7 +2522,7 @@
         <v>110</v>
       </c>
       <c r="J52" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -2562,7 +2562,7 @@
         <v>110</v>
       </c>
       <c r="J53" t="n">
-        <v>149</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -2602,7 +2602,7 @@
         <v>110</v>
       </c>
       <c r="J54" t="n">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55">
@@ -2642,7 +2642,7 @@
         <v>110</v>
       </c>
       <c r="J55" t="n">
-        <v>147</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -2682,7 +2682,7 @@
         <v>110</v>
       </c>
       <c r="J56" t="n">
-        <v>143</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57">
@@ -2722,7 +2722,7 @@
         <v>110</v>
       </c>
       <c r="J57" t="n">
-        <v>142</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58">
@@ -2762,7 +2762,7 @@
         <v>110</v>
       </c>
       <c r="J58" t="n">
-        <v>146</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
@@ -2802,7 +2802,7 @@
         <v>110</v>
       </c>
       <c r="J59" t="n">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60">
@@ -2842,7 +2842,7 @@
         <v>110</v>
       </c>
       <c r="J60" t="n">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61">
@@ -2882,7 +2882,7 @@
         <v>110</v>
       </c>
       <c r="J61" t="n">
-        <v>117</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
@@ -2922,7 +2922,7 @@
         <v>110</v>
       </c>
       <c r="J62" t="n">
-        <v>118</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
@@ -2962,7 +2962,7 @@
         <v>110</v>
       </c>
       <c r="J63" t="n">
-        <v>119</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
@@ -3002,7 +3002,7 @@
         <v>110</v>
       </c>
       <c r="J64" t="n">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
@@ -3042,7 +3042,7 @@
         <v>110</v>
       </c>
       <c r="J65" t="n">
-        <v>123</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
@@ -3082,7 +3082,7 @@
         <v>110</v>
       </c>
       <c r="J66" t="n">
-        <v>124</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
@@ -3122,7 +3122,7 @@
         <v>110</v>
       </c>
       <c r="J67" t="n">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
@@ -3162,7 +3162,7 @@
         <v>110</v>
       </c>
       <c r="J68" t="n">
-        <v>116</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -3202,7 +3202,7 @@
         <v>110</v>
       </c>
       <c r="J69" t="n">
-        <v>122</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70">
@@ -3242,7 +3242,7 @@
         <v>110</v>
       </c>
       <c r="J70" t="n">
-        <v>120</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -3282,7 +3282,7 @@
         <v>110</v>
       </c>
       <c r="J71" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72">
@@ -3322,7 +3322,7 @@
         <v>110</v>
       </c>
       <c r="J72" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73">
@@ -3362,7 +3362,7 @@
         <v>110</v>
       </c>
       <c r="J73" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74">
@@ -3402,7 +3402,7 @@
         <v>110</v>
       </c>
       <c r="J74" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
@@ -3442,7 +3442,7 @@
         <v>110</v>
       </c>
       <c r="J75" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76">
@@ -3482,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="J76" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -3522,7 +3522,7 @@
         <v>110</v>
       </c>
       <c r="J77" t="n">
-        <v>155</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -3562,7 +3562,7 @@
         <v>110</v>
       </c>
       <c r="J78" t="n">
-        <v>162</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
@@ -3602,7 +3602,7 @@
         <v>110</v>
       </c>
       <c r="J79" t="n">
-        <v>161</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80">
@@ -3642,7 +3642,7 @@
         <v>110</v>
       </c>
       <c r="J80" t="n">
-        <v>160</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
@@ -3682,7 +3682,7 @@
         <v>110</v>
       </c>
       <c r="J81" t="n">
-        <v>159</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
@@ -3722,7 +3722,7 @@
         <v>110</v>
       </c>
       <c r="J82" t="n">
-        <v>158</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83">
@@ -3762,7 +3762,7 @@
         <v>110</v>
       </c>
       <c r="J83" t="n">
-        <v>157</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84">
@@ -3802,7 +3802,7 @@
         <v>110</v>
       </c>
       <c r="J84" t="n">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85">
@@ -3842,7 +3842,7 @@
         <v>110</v>
       </c>
       <c r="J85" t="n">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86">
@@ -3882,7 +3882,7 @@
         <v>110</v>
       </c>
       <c r="J86" t="n">
-        <v>153</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87">
@@ -3922,7 +3922,7 @@
         <v>110</v>
       </c>
       <c r="J87" t="n">
-        <v>163</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -3962,7 +3962,7 @@
         <v>110</v>
       </c>
       <c r="J88" t="n">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89">
@@ -4002,7 +4002,7 @@
         <v>110</v>
       </c>
       <c r="J89" t="n">
-        <v>165</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
@@ -4042,7 +4042,7 @@
         <v>110</v>
       </c>
       <c r="J90" t="n">
-        <v>166</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91">
@@ -4082,7 +4082,7 @@
         <v>110</v>
       </c>
       <c r="J91" t="n">
-        <v>167</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92">
@@ -4122,7 +4122,7 @@
         <v>110</v>
       </c>
       <c r="J92" t="n">
-        <v>168</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93">
@@ -4162,7 +4162,7 @@
         <v>110</v>
       </c>
       <c r="J93" t="n">
-        <v>169</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94">
@@ -4202,7 +4202,7 @@
         <v>110</v>
       </c>
       <c r="J94" t="n">
-        <v>171</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95">
@@ -4242,7 +4242,7 @@
         <v>110</v>
       </c>
       <c r="J95" t="n">
-        <v>170</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -4282,7 +4282,7 @@
         <v>110</v>
       </c>
       <c r="J96" t="n">
-        <v>173</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97">
@@ -4322,7 +4322,7 @@
         <v>110</v>
       </c>
       <c r="J97" t="n">
-        <v>172</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98">
@@ -4362,7 +4362,7 @@
         <v>110</v>
       </c>
       <c r="J98" t="n">
-        <v>181</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
@@ -4402,7 +4402,7 @@
         <v>110</v>
       </c>
       <c r="J99" t="n">
-        <v>179</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
@@ -4442,7 +4442,7 @@
         <v>110</v>
       </c>
       <c r="J100" t="n">
-        <v>178</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101">
@@ -4482,7 +4482,7 @@
         <v>110</v>
       </c>
       <c r="J101" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -4522,7 +4522,7 @@
         <v>110</v>
       </c>
       <c r="J102" t="n">
-        <v>176</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
@@ -4562,7 +4562,7 @@
         <v>110</v>
       </c>
       <c r="J103" t="n">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104">
@@ -4602,7 +4602,7 @@
         <v>110</v>
       </c>
       <c r="J104" t="n">
-        <v>174</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105">
@@ -4642,7 +4642,7 @@
         <v>110</v>
       </c>
       <c r="J105" t="n">
-        <v>177</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106">
@@ -4682,7 +4682,7 @@
         <v>110</v>
       </c>
       <c r="J106" t="n">
-        <v>190</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107">
@@ -4722,7 +4722,7 @@
         <v>110</v>
       </c>
       <c r="J107" t="n">
-        <v>189</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108">
@@ -4762,7 +4762,7 @@
         <v>110</v>
       </c>
       <c r="J108" t="n">
-        <v>188</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
@@ -4802,7 +4802,7 @@
         <v>110</v>
       </c>
       <c r="J109" t="n">
-        <v>187</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110">
@@ -4842,7 +4842,7 @@
         <v>110</v>
       </c>
       <c r="J110" t="n">
-        <v>182</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111">
@@ -4882,7 +4882,7 @@
         <v>110</v>
       </c>
       <c r="J111" t="n">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112">
@@ -4922,7 +4922,7 @@
         <v>110</v>
       </c>
       <c r="J112" t="n">
-        <v>184</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113">
@@ -4962,7 +4962,7 @@
         <v>110</v>
       </c>
       <c r="J113" t="n">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114">
@@ -5002,7 +5002,7 @@
         <v>110</v>
       </c>
       <c r="J114" t="n">
-        <v>186</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115">
@@ -5042,7 +5042,7 @@
         <v>110</v>
       </c>
       <c r="J115" t="n">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116">
@@ -5082,7 +5082,7 @@
         <v>110</v>
       </c>
       <c r="J116" t="n">
-        <v>29</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117">
@@ -5122,7 +5122,7 @@
         <v>110</v>
       </c>
       <c r="J117" t="n">
-        <v>201</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
@@ -5162,7 +5162,7 @@
         <v>110</v>
       </c>
       <c r="J118" t="n">
-        <v>200</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119">
@@ -5202,7 +5202,7 @@
         <v>110</v>
       </c>
       <c r="J119" t="n">
-        <v>205</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120">
@@ -5242,7 +5242,7 @@
         <v>110</v>
       </c>
       <c r="J120" t="n">
-        <v>204</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121">
@@ -5282,7 +5282,7 @@
         <v>110</v>
       </c>
       <c r="J121" t="n">
-        <v>203</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122">
@@ -5322,7 +5322,7 @@
         <v>110</v>
       </c>
       <c r="J122" t="n">
-        <v>202</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123">
@@ -5362,7 +5362,7 @@
         <v>110</v>
       </c>
       <c r="J123" t="n">
-        <v>206</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124">
@@ -5402,7 +5402,7 @@
         <v>110</v>
       </c>
       <c r="J124" t="n">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125">
@@ -5442,7 +5442,7 @@
         <v>110</v>
       </c>
       <c r="J125" t="n">
-        <v>30</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126">
@@ -5482,7 +5482,7 @@
         <v>110</v>
       </c>
       <c r="J126" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127">
@@ -5522,7 +5522,7 @@
         <v>110</v>
       </c>
       <c r="J127" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128">
@@ -5562,7 +5562,7 @@
         <v>110</v>
       </c>
       <c r="J128" t="n">
-        <v>34</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129">
@@ -5602,7 +5602,7 @@
         <v>110</v>
       </c>
       <c r="J129" t="n">
-        <v>35</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
@@ -5642,7 +5642,7 @@
         <v>110</v>
       </c>
       <c r="J130" t="n">
-        <v>36</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
@@ -5682,7 +5682,7 @@
         <v>110</v>
       </c>
       <c r="J131" t="n">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132">
@@ -5722,7 +5722,7 @@
         <v>110</v>
       </c>
       <c r="J132" t="n">
-        <v>38</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133">
@@ -5762,7 +5762,7 @@
         <v>110</v>
       </c>
       <c r="J133" t="n">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -5802,7 +5802,7 @@
         <v>110</v>
       </c>
       <c r="J134" t="n">
-        <v>43</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135">
@@ -5842,7 +5842,7 @@
         <v>110</v>
       </c>
       <c r="J135" t="n">
-        <v>40</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
@@ -5882,7 +5882,7 @@
         <v>110</v>
       </c>
       <c r="J136" t="n">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
@@ -5922,7 +5922,7 @@
         <v>110</v>
       </c>
       <c r="J137" t="n">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138">
@@ -5962,7 +5962,7 @@
         <v>110</v>
       </c>
       <c r="J138" t="n">
-        <v>44</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
@@ -6002,7 +6002,7 @@
         <v>110</v>
       </c>
       <c r="J139" t="n">
-        <v>47</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
@@ -6042,7 +6042,7 @@
         <v>110</v>
       </c>
       <c r="J140" t="n">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141">
@@ -6082,7 +6082,7 @@
         <v>110</v>
       </c>
       <c r="J141" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
@@ -6122,7 +6122,7 @@
         <v>110</v>
       </c>
       <c r="J142" t="n">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143">
@@ -6162,7 +6162,7 @@
         <v>110</v>
       </c>
       <c r="J143" t="n">
-        <v>49</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144">
@@ -6202,7 +6202,7 @@
         <v>110</v>
       </c>
       <c r="J144" t="n">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145">
@@ -6242,7 +6242,7 @@
         <v>110</v>
       </c>
       <c r="J145" t="n">
-        <v>51</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146">
@@ -6282,7 +6282,7 @@
         <v>110</v>
       </c>
       <c r="J146" t="n">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147">
@@ -6322,7 +6322,7 @@
         <v>110</v>
       </c>
       <c r="J147" t="n">
-        <v>53</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148">
@@ -6362,7 +6362,7 @@
         <v>110</v>
       </c>
       <c r="J148" t="n">
-        <v>193</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
@@ -6402,7 +6402,7 @@
         <v>110</v>
       </c>
       <c r="J149" t="n">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150">
@@ -6442,7 +6442,7 @@
         <v>110</v>
       </c>
       <c r="J150" t="n">
-        <v>198</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151">
@@ -6482,7 +6482,7 @@
         <v>110</v>
       </c>
       <c r="J151" t="n">
-        <v>196</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152">
@@ -6522,7 +6522,7 @@
         <v>110</v>
       </c>
       <c r="J152" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
@@ -6562,7 +6562,7 @@
         <v>110</v>
       </c>
       <c r="J153" t="n">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154">
@@ -6602,7 +6602,7 @@
         <v>110</v>
       </c>
       <c r="J154" t="n">
-        <v>195</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
@@ -6642,7 +6642,7 @@
         <v>110</v>
       </c>
       <c r="J155" t="n">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156">
@@ -6682,7 +6682,7 @@
         <v>110</v>
       </c>
       <c r="J156" t="n">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
@@ -6722,7 +6722,7 @@
         <v>110</v>
       </c>
       <c r="J157" t="n">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158">
@@ -6762,7 +6762,7 @@
         <v>110</v>
       </c>
       <c r="J158" t="n">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159">
@@ -6802,7 +6802,7 @@
         <v>110</v>
       </c>
       <c r="J159" t="n">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160">
@@ -6842,7 +6842,7 @@
         <v>110</v>
       </c>
       <c r="J160" t="n">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161">
@@ -6882,7 +6882,7 @@
         <v>110</v>
       </c>
       <c r="J161" t="n">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162">
@@ -6922,7 +6922,7 @@
         <v>110</v>
       </c>
       <c r="J162" t="n">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163">
@@ -6962,7 +6962,7 @@
         <v>110</v>
       </c>
       <c r="J163" t="n">
-        <v>59</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164">
@@ -7002,7 +7002,7 @@
         <v>110</v>
       </c>
       <c r="J164" t="n">
-        <v>57</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165">
@@ -7042,7 +7042,7 @@
         <v>110</v>
       </c>
       <c r="J165" t="n">
-        <v>58</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166">
@@ -7082,7 +7082,7 @@
         <v>110</v>
       </c>
       <c r="J166" t="n">
-        <v>60</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167">
@@ -7122,7 +7122,7 @@
         <v>110</v>
       </c>
       <c r="J167" t="n">
-        <v>218</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168">
@@ -7162,7 +7162,7 @@
         <v>110</v>
       </c>
       <c r="J168" t="n">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169">
@@ -7202,7 +7202,7 @@
         <v>110</v>
       </c>
       <c r="J169" t="n">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="170">
@@ -7242,7 +7242,7 @@
         <v>110</v>
       </c>
       <c r="J170" t="n">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171">
@@ -7282,7 +7282,7 @@
         <v>110</v>
       </c>
       <c r="J171" t="n">
-        <v>214</v>
+        <v>170</v>
       </c>
     </row>
     <row r="172">
@@ -7322,7 +7322,7 @@
         <v>110</v>
       </c>
       <c r="J172" t="n">
-        <v>213</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173">
@@ -7362,7 +7362,7 @@
         <v>110</v>
       </c>
       <c r="J173" t="n">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="174">
@@ -7402,7 +7402,7 @@
         <v>110</v>
       </c>
       <c r="J174" t="n">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="175">
@@ -7442,7 +7442,7 @@
         <v>110</v>
       </c>
       <c r="J175" t="n">
-        <v>210</v>
+        <v>174</v>
       </c>
     </row>
     <row r="176">
@@ -7482,7 +7482,7 @@
         <v>110</v>
       </c>
       <c r="J176" t="n">
-        <v>61</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177">
@@ -7522,7 +7522,7 @@
         <v>110</v>
       </c>
       <c r="J177" t="n">
-        <v>66</v>
+        <v>176</v>
       </c>
     </row>
     <row r="178">
@@ -7562,7 +7562,7 @@
         <v>110</v>
       </c>
       <c r="J178" t="n">
-        <v>65</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179">
@@ -7602,7 +7602,7 @@
         <v>110</v>
       </c>
       <c r="J179" t="n">
-        <v>64</v>
+        <v>178</v>
       </c>
     </row>
     <row r="180">
@@ -7642,7 +7642,7 @@
         <v>110</v>
       </c>
       <c r="J180" t="n">
-        <v>62</v>
+        <v>179</v>
       </c>
     </row>
     <row r="181">
@@ -7682,7 +7682,7 @@
         <v>110</v>
       </c>
       <c r="J181" t="n">
-        <v>63</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
@@ -7722,7 +7722,7 @@
         <v>110</v>
       </c>
       <c r="J182" t="n">
-        <v>70</v>
+        <v>181</v>
       </c>
     </row>
     <row r="183">
@@ -7762,7 +7762,7 @@
         <v>110</v>
       </c>
       <c r="J183" t="n">
-        <v>67</v>
+        <v>182</v>
       </c>
     </row>
     <row r="184">
@@ -7802,7 +7802,7 @@
         <v>110</v>
       </c>
       <c r="J184" t="n">
-        <v>68</v>
+        <v>183</v>
       </c>
     </row>
     <row r="185">
@@ -7842,7 +7842,7 @@
         <v>110</v>
       </c>
       <c r="J185" t="n">
-        <v>71</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186">
@@ -7882,7 +7882,7 @@
         <v>110</v>
       </c>
       <c r="J186" t="n">
-        <v>72</v>
+        <v>185</v>
       </c>
     </row>
     <row r="187">
@@ -7922,7 +7922,7 @@
         <v>110</v>
       </c>
       <c r="J187" t="n">
-        <v>69</v>
+        <v>186</v>
       </c>
     </row>
     <row r="188">
@@ -7962,7 +7962,7 @@
         <v>110</v>
       </c>
       <c r="J188" t="n">
-        <v>78</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189">
@@ -8002,7 +8002,7 @@
         <v>110</v>
       </c>
       <c r="J189" t="n">
-        <v>73</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190">
@@ -8042,7 +8042,7 @@
         <v>110</v>
       </c>
       <c r="J190" t="n">
-        <v>74</v>
+        <v>189</v>
       </c>
     </row>
     <row r="191">
@@ -8082,7 +8082,7 @@
         <v>110</v>
       </c>
       <c r="J191" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192">
@@ -8122,7 +8122,7 @@
         <v>110</v>
       </c>
       <c r="J192" t="n">
-        <v>79</v>
+        <v>191</v>
       </c>
     </row>
     <row r="193">
@@ -8162,7 +8162,7 @@
         <v>110</v>
       </c>
       <c r="J193" t="n">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="194">
@@ -8202,7 +8202,7 @@
         <v>110</v>
       </c>
       <c r="J194" t="n">
-        <v>76</v>
+        <v>193</v>
       </c>
     </row>
     <row r="195">
@@ -8242,7 +8242,7 @@
         <v>110</v>
       </c>
       <c r="J195" t="n">
-        <v>75</v>
+        <v>194</v>
       </c>
     </row>
     <row r="196">
@@ -8282,7 +8282,7 @@
         <v>110</v>
       </c>
       <c r="J196" t="n">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197">
@@ -8322,7 +8322,7 @@
         <v>110</v>
       </c>
       <c r="J197" t="n">
-        <v>220</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198">
@@ -8362,7 +8362,7 @@
         <v>110</v>
       </c>
       <c r="J198" t="n">
-        <v>221</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199">
@@ -8402,7 +8402,7 @@
         <v>110</v>
       </c>
       <c r="J199" t="n">
-        <v>82</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200">
@@ -8442,7 +8442,7 @@
         <v>110</v>
       </c>
       <c r="J200" t="n">
-        <v>81</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201">
@@ -8482,7 +8482,7 @@
         <v>110</v>
       </c>
       <c r="J201" t="n">
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202">
@@ -8522,7 +8522,7 @@
         <v>110</v>
       </c>
       <c r="J202" t="n">
-        <v>84</v>
+        <v>201</v>
       </c>
     </row>
     <row r="203">
@@ -8562,7 +8562,7 @@
         <v>110</v>
       </c>
       <c r="J203" t="n">
-        <v>85</v>
+        <v>202</v>
       </c>
     </row>
     <row r="204">
@@ -8602,7 +8602,7 @@
         <v>110</v>
       </c>
       <c r="J204" t="n">
-        <v>86</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205">
@@ -8642,7 +8642,7 @@
         <v>110</v>
       </c>
       <c r="J205" t="n">
-        <v>87</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206">
@@ -8682,7 +8682,7 @@
         <v>110</v>
       </c>
       <c r="J206" t="n">
-        <v>88</v>
+        <v>205</v>
       </c>
     </row>
     <row r="207">
@@ -8722,7 +8722,7 @@
         <v>110</v>
       </c>
       <c r="J207" t="n">
-        <v>89</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208">
@@ -8762,7 +8762,7 @@
         <v>110</v>
       </c>
       <c r="J208" t="n">
-        <v>90</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209">
@@ -8802,7 +8802,7 @@
         <v>110</v>
       </c>
       <c r="J209" t="n">
-        <v>91</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210">
@@ -8842,7 +8842,7 @@
         <v>110</v>
       </c>
       <c r="J210" t="n">
-        <v>92</v>
+        <v>209</v>
       </c>
     </row>
     <row r="211">
@@ -8882,7 +8882,7 @@
         <v>110</v>
       </c>
       <c r="J211" t="n">
-        <v>93</v>
+        <v>210</v>
       </c>
     </row>
     <row r="212">
@@ -8922,7 +8922,7 @@
         <v>110</v>
       </c>
       <c r="J212" t="n">
-        <v>94</v>
+        <v>211</v>
       </c>
     </row>
     <row r="213">
@@ -8962,7 +8962,7 @@
         <v>110</v>
       </c>
       <c r="J213" t="n">
-        <v>95</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214">
@@ -9002,7 +9002,7 @@
         <v>110</v>
       </c>
       <c r="J214" t="n">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215">
@@ -9042,7 +9042,7 @@
         <v>110</v>
       </c>
       <c r="J215" t="n">
-        <v>97</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216">
@@ -9082,7 +9082,7 @@
         <v>110</v>
       </c>
       <c r="J216" t="n">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="217">
@@ -9122,7 +9122,7 @@
         <v>110</v>
       </c>
       <c r="J217" t="n">
-        <v>99</v>
+        <v>216</v>
       </c>
     </row>
     <row r="218">
@@ -9162,7 +9162,7 @@
         <v>110</v>
       </c>
       <c r="J218" t="n">
-        <v>100</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219">
@@ -9202,7 +9202,7 @@
         <v>110</v>
       </c>
       <c r="J219" t="n">
-        <v>101</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220">
@@ -9242,7 +9242,7 @@
         <v>110</v>
       </c>
       <c r="J220" t="n">
-        <v>102</v>
+        <v>219</v>
       </c>
     </row>
     <row r="221">
@@ -9282,7 +9282,7 @@
         <v>110</v>
       </c>
       <c r="J221" t="n">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222">
@@ -9322,7 +9322,7 @@
         <v>110</v>
       </c>
       <c r="J222" t="n">
-        <v>104</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
